--- a/RPA/Reportes/Reporte_2025-10-31.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">26.286667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 12:41:21 AM</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G2"/>
     </row>
@@ -753,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G3"/>
     </row>
@@ -774,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G4"/>
     </row>
@@ -795,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G5"/>
     </row>
@@ -816,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G6"/>
     </row>
@@ -837,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G7"/>
     </row>
@@ -858,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G8"/>
     </row>
@@ -879,7 +882,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G9"/>
     </row>
@@ -900,7 +903,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G10"/>
     </row>
@@ -921,7 +924,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G11"/>
     </row>
@@ -942,7 +945,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G12"/>
     </row>
@@ -963,7 +966,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G13"/>
     </row>
@@ -984,7 +987,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1005,7 +1008,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1026,7 +1029,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1047,7 +1050,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1068,7 +1071,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1089,7 +1092,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1110,7 +1113,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1131,7 +1134,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G21"/>
     </row>

--- a/RPA/Reportes/Reporte_2025-10-31.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="104">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/31/2025 12:41:21 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 8:43:21 AM</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2"/>
     </row>
@@ -756,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3"/>
     </row>
@@ -777,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4"/>
     </row>
@@ -798,7 +801,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5"/>
     </row>
@@ -819,7 +822,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6"/>
     </row>
@@ -840,7 +843,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7"/>
     </row>
@@ -861,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8"/>
     </row>
@@ -882,7 +885,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G9"/>
     </row>
@@ -903,7 +906,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10"/>
     </row>
@@ -924,7 +927,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11"/>
     </row>
@@ -945,7 +948,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12"/>
     </row>
@@ -966,7 +969,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13"/>
     </row>
@@ -987,7 +990,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1008,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1029,7 +1032,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1050,7 +1053,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1071,7 +1074,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1092,7 +1095,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1113,7 +1116,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1134,7 +1137,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G21"/>
     </row>

--- a/RPA/Reportes/Reporte_2025-10-31.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="107">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t xml:space="preserve">10/31/2025 8:43:21 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 5:49:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 5:54:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 6:06:23 PM</t>
   </si>
 </sst>
 </file>
@@ -738,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2"/>
     </row>
@@ -759,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G3"/>
     </row>
@@ -780,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G4"/>
     </row>
@@ -801,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G5"/>
     </row>
@@ -822,7 +831,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G6"/>
     </row>
@@ -843,7 +852,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G7"/>
     </row>
@@ -864,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G8"/>
     </row>
@@ -885,7 +894,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G9"/>
     </row>
@@ -906,7 +915,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10"/>
     </row>
@@ -927,7 +936,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G11"/>
     </row>
@@ -948,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G12"/>
     </row>
@@ -969,7 +978,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G13"/>
     </row>
@@ -990,7 +999,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1011,7 +1020,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1032,7 +1041,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1053,7 +1062,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1074,7 +1083,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1095,7 +1104,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1116,7 +1125,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1137,7 +1146,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G21"/>
     </row>

--- a/RPA/Reportes/Reporte_2025-10-31.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="108">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/31/2025 6:06:23 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 6:18:54 PM</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2"/>
     </row>
@@ -768,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3"/>
     </row>
@@ -789,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4"/>
     </row>
@@ -810,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5"/>
     </row>
@@ -831,7 +834,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6"/>
     </row>
@@ -852,7 +855,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7"/>
     </row>
@@ -873,7 +876,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8"/>
     </row>
@@ -894,7 +897,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9"/>
     </row>
@@ -915,7 +918,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10"/>
     </row>
@@ -936,7 +939,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11"/>
     </row>
@@ -957,7 +960,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12"/>
     </row>
@@ -978,7 +981,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13"/>
     </row>
@@ -999,7 +1002,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1020,7 +1023,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1041,7 +1044,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1062,7 +1065,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1083,7 +1086,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1104,7 +1107,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1125,7 +1128,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1146,7 +1149,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21"/>
     </row>

--- a/RPA/Reportes/Reporte_2025-10-31.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="114">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -344,6 +344,24 @@
   </si>
   <si>
     <t xml:space="preserve">10/31/2025 6:18:54 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:12:02 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:14:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:15:51 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:16:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:20:53 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2025 7:21:28 PM</t>
   </si>
 </sst>
 </file>
@@ -750,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G2"/>
     </row>
@@ -771,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G3"/>
     </row>
@@ -792,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G4"/>
     </row>
@@ -813,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G5"/>
     </row>
@@ -834,7 +852,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G6"/>
     </row>
@@ -855,7 +873,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G7"/>
     </row>
@@ -876,7 +894,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G8"/>
     </row>
@@ -897,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G9"/>
     </row>
@@ -918,7 +936,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G10"/>
     </row>
@@ -939,7 +957,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G11"/>
     </row>
@@ -960,7 +978,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G12"/>
     </row>
@@ -981,7 +999,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G13"/>
     </row>
@@ -1002,7 +1020,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1023,7 +1041,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1044,7 +1062,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1065,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1086,7 +1104,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1107,7 +1125,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1128,7 +1146,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1149,7 +1167,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G21"/>
     </row>
